--- a/selenium-mave-excel-google/testData.xlsx
+++ b/selenium-mave-excel-google/testData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Item</t>
   </si>
@@ -75,6 +75,42 @@
   </si>
   <si>
     <t xml:space="preserve">11,600,000 (0.34 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">930,000,000 (0.79 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,020,000,000 (0.77 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">567,000,000 (0.90 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,100,000 (0.52 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">804,000,000 (0.65 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,940,000,000 (0.54 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">511,000,000 (0.71 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,500,000 (0.40 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">929,000,000 (0.63 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,020,000,000 (0.47 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">567,000,000 (0.62 seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,100,000 (0.36 seconds) </t>
   </si>
 </sst>
 </file>
@@ -111,8 +147,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -446,32 +518,32 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
+      <c r="B2" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>10</v>
+      <c r="B3" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
+      <c r="B4" s="22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
+      <c r="B5" s="23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
